--- a/Projects/GSKJP_SAND/Data/gsk_set_up_test.xlsx
+++ b/Projects/GSKJP_SAND/Data/gsk_set_up_test.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -65,52 +65,31 @@
     <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
+    <t xml:space="preserve">Facings SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linear SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Oral Main Shelf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shumitect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooth paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_ECAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Cap</t>
   </si>
 </sst>
 </file>
@@ -120,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +131,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -159,7 +145,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +156,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -227,7 +207,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,7 +224,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,22 +246,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -310,7 +282,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -348,7 +320,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -359,33 +331,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,7 +391,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AMA1" s="0"/>
@@ -433,34 +405,35 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="8"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -472,151 +445,56 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
